--- a/book-examples/chapter-09/EX-CH-09.xlsx
+++ b/book-examples/chapter-09/EX-CH-09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/285c4288e9ca29f3/Documents/GitHub/pricing-analytics/book-examples/chapter-09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8FF21E-ABC6-4FB5-B60D-4DCBC3E688C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{0C8FF21E-ABC6-4FB5-B60D-4DCBC3E688C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9621587C-03A6-4BBD-9937-34CAC0DB6144}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3110" windowWidth="20940" windowHeight="11070" xr2:uid="{6388F8DA-D048-4932-910D-BBAD88C1A32E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" activeTab="3" xr2:uid="{6388F8DA-D048-4932-910D-BBAD88C1A32E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex-9-1" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Ex-9-2'!#REF!</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Ex-9-3'!$B$11:$B$12</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'Ex-9-4'!$B$34:$B$38</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Ex-9-4'!$B$35:$B$39</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'Ex-9-5'!$B$19</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'Ex-9-6'!$B$19:$B$22</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
@@ -55,26 +55,26 @@
     <definedName name="solver_lhs0" localSheetId="5" hidden="1">'Ex-9-6'!$D$24</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Ex-9-2'!#REF!</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Ex-9-3'!$B$12</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Ex-9-4'!$D$38</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Ex-9-4'!$D$39</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Ex-9-5'!$B$22</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Ex-9-6'!$B$20</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Ex-9-2'!#REF!</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Ex-9-3'!$E$12</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Ex-9-4'!$D$38</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Ex-9-4'!$D$39</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Ex-9-5'!$D$24</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Ex-9-6'!$B$21</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Ex-9-2'!#REF!</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Ex-9-3'!#REF!</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Ex-9-4'!$D$38</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Ex-9-4'!$D$39</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Ex-9-5'!$D$24</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Ex-9-6'!$B$22</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Ex-9-2'!#REF!</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Ex-9-3'!#REF!</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Ex-9-4'!$D$38</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Ex-9-4'!$D$39</definedName>
     <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Ex-9-5'!$D$24</definedName>
     <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Ex-9-6'!$B$22</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Ex-9-3'!#REF!</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Ex-9-4'!$D$38</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Ex-9-4'!$D$39</definedName>
     <definedName name="solver_lhs5" localSheetId="4" hidden="1">'Ex-9-5'!$D$24</definedName>
     <definedName name="solver_lhs5" localSheetId="5" hidden="1">'Ex-9-6'!$D$24</definedName>
     <definedName name="solver_lhs6" localSheetId="4" hidden="1">'Ex-9-5'!$D$24</definedName>
@@ -121,7 +121,7 @@
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Ex-9-2'!#REF!</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Ex-9-3'!$F$13</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'Ex-9-4'!$E$39</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Ex-9-4'!$E$40</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">'Ex-9-5'!$F$24</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">'Ex-9-6'!$F$24</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
@@ -259,87 +259,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
-  <si>
-    <t>Price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t>d(p)</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Price path 1</t>
-  </si>
-  <si>
-    <t>Price path 2</t>
-  </si>
-  <si>
-    <t>Price path 3</t>
-  </si>
-  <si>
-    <t>Price path 4</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>slope</t>
-  </si>
-  <si>
-    <t># OF PERIODS</t>
-  </si>
-  <si>
-    <t>TOTAL PROFIT</t>
-  </si>
-  <si>
-    <t>%-CHANGE FROM SINGLE-PERIOD</t>
-  </si>
-  <si>
-    <t>SINGLE-PERIOD PRICE</t>
-  </si>
-  <si>
-    <t>d(p)-tot</t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>TWO-PERIOD PRICE</t>
-  </si>
-  <si>
-    <t>THREE-PERIOD PRICE</t>
-  </si>
-  <si>
-    <t>Canniballization fraction</t>
-  </si>
-  <si>
-    <t>EFFECT OF CANNIBALIZATION</t>
-  </si>
-  <si>
-    <t>CANNIBAIZATION FRACTION</t>
-  </si>
-  <si>
-    <t>FIRST-PERIOD PRICE</t>
-  </si>
-  <si>
-    <t>SECOND-PERIOD PRICE</t>
-  </si>
-  <si>
-    <t>TOTAL REVENUE</t>
-  </si>
-  <si>
-    <t>%-CHANGE IN REVENUE</t>
-  </si>
-  <si>
-    <t>Cannibalization</t>
   </si>
   <si>
     <t>d1(p1)</t>
@@ -354,46 +276,7 @@
     <t>d4(p4)</t>
   </si>
   <si>
-    <t>Initial stock</t>
-  </si>
-  <si>
     <t>r</t>
-  </si>
-  <si>
-    <t>Dynamic Price</t>
-  </si>
-  <si>
-    <t>Number for Figure: Dynamic</t>
-  </si>
-  <si>
-    <t>Discount (%)</t>
-  </si>
-  <si>
-    <t>Inventory (x)</t>
-  </si>
-  <si>
-    <t>Revenue (R)</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>Unsold</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Static Price</t>
-  </si>
-  <si>
-    <t>Difference:</t>
-  </si>
-  <si>
-    <t>%-change in profit:</t>
   </si>
   <si>
     <t>w</t>
@@ -411,31 +294,430 @@
     <t>B</t>
   </si>
   <si>
-    <t>PLC PARAMETERS</t>
-  </si>
-  <si>
     <t>PLC #1</t>
   </si>
   <si>
     <t>PLC #2</t>
   </si>
   <si>
-    <t>DATA USED TO CREATE STEP-CHARTS FOR PRICE PATHS</t>
+    <t>価格の変化を表現するためのデータ</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>CANNIBALIZATION EFFECT IN TWO-PERIOD MARKDOWN PROBLEM</t>
+    <t>期間</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>MULTI-PERIOD PRICING</t>
+    <t>価格の変化1</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>STATIC PRICING</t>
+    <t>価格の変化2</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>DYNAMIC PRICING</t>
+    <t>価格の変化3</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Profit with static price:</t>
+    <t>価格の変化4</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>製品ライフサイクル(PLC)の変数</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>定数</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>係数</t>
+    <rPh sb="0" eb="2">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カニバリゼーションの割合</t>
+    <rPh sb="10" eb="12">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カニバリゼーションの効果</t>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2期間のマークダウン問題におけるカニバリゼーションの効果</t>
+    <rPh sb="10" eb="12">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>価格</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カニバリゼーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>d(p)-カニバリゼーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>利益</t>
+    <rPh sb="0" eb="2">
+      <t>リエキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>利益の合計</t>
+    <rPh sb="0" eb="2">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>総収益</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシュウエキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>第1期間の価格</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>第2期間の価格</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>総収益の減収率(%)</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシュウエキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>複数期間での価格最適化</t>
+    <rPh sb="0" eb="4">
+      <t>フクスウキカン</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>カカクサイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>d(p)-tot</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1期間からの収益の改善率</t>
+    <rPh sb="1" eb="3">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイゼンリツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1期間での価格最適化</t>
+    <rPh sb="1" eb="3">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>カカクサイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2期間での価格最適化</t>
+    <rPh sb="1" eb="3">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>カカクサイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>総利益</t>
+    <rPh sb="0" eb="3">
+      <t>ソウリエキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>3期間での価格最適化</t>
+    <rPh sb="1" eb="3">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>カカクサイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>4期間での価格最適化</t>
+    <rPh sb="1" eb="3">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>カカクサイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>5期間での価格最適化</t>
+    <rPh sb="1" eb="3">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>カカクサイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>傾き</t>
+    <rPh sb="0" eb="1">
+      <t>カタム</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>初期在庫</t>
+    <rPh sb="0" eb="4">
+      <t>ショキザイコ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>切片</t>
+    <rPh sb="0" eb="2">
+      <t>セッペン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>割引率 (%)</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキリツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>在庫 (x)</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>収益 (R)</t>
+    <rPh sb="0" eb="2">
+      <t>シュウエキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>販売数</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>収益</t>
+    <rPh sb="0" eb="2">
+      <t>シュウエキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>固定価格</t>
+    <rPh sb="0" eb="4">
+      <t>コテイカカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>売れ残り</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>在庫</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>図の描画用のデータ</t>
+    <rPh sb="0" eb="1">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ビョウガヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>変動価格</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>初期在庫</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>固定価格での利益</t>
+    <rPh sb="0" eb="4">
+      <t>コテイカカク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リエキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>固定価格からの利益の改善幅</t>
+    <rPh sb="0" eb="4">
+      <t>コテイカカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カイゼンハバ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>利益の変化率</t>
+    <rPh sb="0" eb="2">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヘンカリツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -788,7 +1070,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Price path 1</c:v>
+                  <c:v>価格の変化1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1011,9 +1293,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Period</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>期間</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1112,9 +1395,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Price</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>価格</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1214,7 +1498,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Price</c:v>
+                  <c:v>価格</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1329,7 +1613,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inventory</c:v>
+                  <c:v>在庫</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1427,9 +1711,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Period</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>期間</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1548,9 +1833,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Price</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>価格</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1647,9 +1933,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Inventory</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>在庫</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1838,7 +2125,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Price path 2</c:v>
+                  <c:v>価格の変化2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2031,7 +2318,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Price path 2</c:v>
+                  <c:v>価格の変化2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2254,9 +2541,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Period</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>期間</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2355,9 +2643,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Price</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>価格</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2457,7 +2746,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Price path 3</c:v>
+                  <c:v>価格の変化3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2680,9 +2969,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Period</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>期間</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2781,9 +3071,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Price</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>価格</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2883,7 +3174,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Price path 4</c:v>
+                  <c:v>価格の変化4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3106,9 +3397,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Period</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>期間</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3207,9 +3499,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Price</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>価格</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3314,22 +3607,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Product</a:t>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>製品ライフサイクル</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> life cycle (PLC)</a:t>
+              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+              <a:t> 例</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>: Example #1</a:t>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>#1</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
@@ -3595,9 +3883,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Week #</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>週番号</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3714,9 +4003,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Sales</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>売上</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3870,21 +4160,35 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
               </a:rPr>
-              <a:t>Product life cycle (PLC): </a:t>
+              <a:t>製品ライフサイクル 例</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Example #2</a:t>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>#2</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4149,9 +4453,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Week #</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>週番号</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4268,9 +4573,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Sales</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>売上</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4424,9 +4730,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Effect of various cannibalization fractions on total profit</a:t>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>カニバリゼーションの割合と総収益の関係</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4580,9 +4887,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>Cannibalization fraction</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:t>カニバリゼーションの割合</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4702,9 +5010,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Total Profit</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>総収益</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4886,7 +5195,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TOTAL PROFIT</c:v>
+                  <c:v>総収益</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4973,9 +5282,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t># of periods</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>期間</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5219,7 +5529,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Price</c:v>
+                  <c:v>価格</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5334,7 +5644,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inventory</c:v>
+                  <c:v>在庫</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5553,9 +5863,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Price</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>価格</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5652,9 +5963,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Inventory</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>在庫</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9306,12 +9618,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2465419" cy="334515"/>
+    <xdr:ext cx="1441420" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5">
@@ -9325,8 +9637,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8572500" y="152400"/>
-          <a:ext cx="2465419" cy="334515"/>
+          <a:off x="10137775" y="615950"/>
+          <a:ext cx="1441420" cy="392800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9356,16 +9668,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1400">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400">
               <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Examples</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> of four price paths</a:t>
+            <a:t>価格の変化の例</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
@@ -9930,8 +10236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BC5407-10BA-4489-B3B6-12E2B8C87BC5}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9947,7 +10253,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="35" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -9971,34 +10277,34 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10724,14 +11030,14 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="35" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -10739,16 +11045,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10781,13 +11087,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11480,23 +11786,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D884960F-C5F0-45EA-B7F3-4D1D036F986F}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="3" width="11.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="35" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -11532,13 +11838,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -11561,18 +11867,18 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="38" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -11582,22 +11888,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -11613,15 +11919,15 @@
       </c>
       <c r="D11" s="2">
         <f>($A$5+$B$5*B11)*C7</f>
-        <v>0</v>
+        <v>8.3333333542044894</v>
       </c>
       <c r="E11" s="2">
         <f>C11-D11</f>
-        <v>83.333333542044898</v>
+        <v>75.000000187840413</v>
       </c>
       <c r="F11" s="2">
         <f>B11*E11</f>
-        <v>2777.7777812563036</v>
+        <v>2500.0000031306736</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -11633,7 +11939,7 @@
       </c>
       <c r="C12" s="2">
         <f>($A$5+$B$5*B12)-E11</f>
-        <v>83.333374080728106</v>
+        <v>91.66670743493259</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -11642,12 +11948,12 @@
       </c>
       <c r="F12" s="2">
         <f>B12*C12</f>
-        <v>1388.8888854100294</v>
+        <v>1527.7777063865933</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -11655,24 +11961,24 @@
       <c r="E13" s="19"/>
       <c r="F13" s="7">
         <f>SUM(F10:F12)</f>
-        <v>4166.6666666663332</v>
+        <v>4027.7777095172669</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -11804,10 +12110,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48FF6D8-7668-4954-A932-2A8A39E15430}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11815,25 +12121,26 @@
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="20.4140625" customWidth="1"/>
+    <col min="8" max="9" width="20.4140625" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="43" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="45"/>
       <c r="H1" s="32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11851,13 +12158,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -11899,7 +12206,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="2">
-        <f>E30</f>
+        <f>E31</f>
         <v>4999.9999999589118</v>
       </c>
       <c r="J5" s="6">
@@ -11912,7 +12219,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="2">
-        <f>E39</f>
+        <f>E40</f>
         <v>5208.3333332754246</v>
       </c>
       <c r="J6" s="6">
@@ -11922,7 +12229,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="42" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -11931,19 +12238,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11968,7 +12275,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="39" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -11980,7 +12287,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="42" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -11989,19 +12296,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -12046,7 +12353,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="39" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -12058,7 +12365,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="42" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -12067,19 +12374,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12144,7 +12451,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="39" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -12155,246 +12462,264 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>39.999895156729352</v>
-      </c>
-      <c r="C26" s="2">
-        <f>$A$4+$B$4*B26</f>
-        <v>50.000524216353256</v>
-      </c>
-      <c r="D26" s="2">
-        <f>C26</f>
-        <v>50.000524216353256</v>
-      </c>
-      <c r="E26" s="2">
-        <f>B26*C26</f>
-        <v>2000.0157264356374</v>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>29.999897646007131</v>
+        <v>39.999895156729352</v>
       </c>
       <c r="C27" s="2">
-        <f>($A$4+$B$4*B27)-D26</f>
-        <v>49.999987553611078</v>
+        <f>$A$4+$B$4*B27</f>
+        <v>50.000524216353256</v>
       </c>
       <c r="D27" s="2">
-        <f>D26+C27</f>
-        <v>100.00051176996433</v>
+        <f>C27</f>
+        <v>50.000524216353256</v>
       </c>
       <c r="E27" s="2">
         <f>B27*C27</f>
-        <v>1499.9945089099629</v>
+        <v>2000.0157264356374</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2">
-        <v>19.999967449120778</v>
+        <v>29.999897646007131</v>
       </c>
       <c r="C28" s="2">
         <f>($A$4+$B$4*B28)-D27</f>
-        <v>49.999650984431781</v>
+        <v>49.999987553611078</v>
       </c>
       <c r="D28" s="2">
         <f>D27+C28</f>
-        <v>150.00016275439611</v>
+        <v>100.00051176996433</v>
       </c>
       <c r="E28" s="2">
         <f>B28*C28</f>
-        <v>999.99139215603532</v>
+        <v>1499.9945089099629</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2">
-        <v>9.9999795399419416</v>
+        <v>19.999967449120778</v>
       </c>
       <c r="C29" s="2">
         <f>($A$4+$B$4*B29)-D28</f>
-        <v>49.999939545894165</v>
+        <v>49.999650984431781</v>
       </c>
       <c r="D29" s="2">
         <f>D28+C29</f>
-        <v>200.00010230029028</v>
+        <v>150.00016275439611</v>
       </c>
       <c r="E29" s="2">
         <f>B29*C29</f>
+        <v>999.99139215603532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>9.9999795399419416</v>
+      </c>
+      <c r="C30" s="2">
+        <f>($A$4+$B$4*B30)-D29</f>
+        <v>49.999939545894165</v>
+      </c>
+      <c r="D30" s="2">
+        <f>D29+C30</f>
+        <v>200.00010230029028</v>
+      </c>
+      <c r="E30" s="2">
+        <f>B30*C30</f>
         <v>499.99837245727559</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="7">
-        <f>SUM(E26:E29)</f>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="7">
+        <f>SUM(E27:E30)</f>
         <v>4999.9999999589118</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2">
-        <v>41.666619603799987</v>
-      </c>
-      <c r="C34" s="2">
-        <f>A4+B4*B34</f>
-        <v>41.66690198100008</v>
-      </c>
-      <c r="D34" s="2">
-        <f>C34</f>
-        <v>41.66690198100008</v>
-      </c>
-      <c r="E34" s="2">
-        <f>B34*C34</f>
-        <v>1736.1189549111505</v>
+      <c r="D34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="2">
-        <v>33.333264805998041</v>
+        <v>41.666619603799987</v>
       </c>
       <c r="C35" s="2">
-        <f>($A$4+$B$4*B35)-D34</f>
-        <v>41.666773989009698</v>
+        <f>A4+B4*B35</f>
+        <v>41.66690198100008</v>
       </c>
       <c r="D35" s="2">
-        <f>D34+C35</f>
-        <v>83.333675970009779</v>
+        <f>C35</f>
+        <v>41.66690198100008</v>
       </c>
       <c r="E35" s="2">
         <f>B35*C35</f>
-        <v>1388.8896109873317</v>
+        <v>1736.1189549111505</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="2">
-        <v>24.999882552065881</v>
+        <v>33.333264805998041</v>
       </c>
       <c r="C36" s="2">
         <f>($A$4+$B$4*B36)-D35</f>
-        <v>41.666911269660815</v>
+        <v>41.666773989009698</v>
       </c>
       <c r="D36" s="2">
         <f>D35+C36</f>
-        <v>125.00058723967059</v>
+        <v>83.333675970009779</v>
       </c>
       <c r="E36" s="2">
         <f>B36*C36</f>
-        <v>1041.6678880488705</v>
+        <v>1388.8896109873317</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="2">
-        <v>16.666501894516298</v>
+        <v>24.999882552065881</v>
       </c>
       <c r="C37" s="2">
         <f>($A$4+$B$4*B37)-D36</f>
-        <v>41.666903287747928</v>
+        <v>41.666911269660815</v>
       </c>
       <c r="D37" s="2">
         <f>D36+C37</f>
-        <v>166.66749052741852</v>
+        <v>125.00058723967059</v>
       </c>
       <c r="E37" s="2">
         <f>B37*C37</f>
-        <v>694.44152258387817</v>
+        <v>1041.6678880488705</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>8.3332847107901671</v>
+        <v>16.666501894516298</v>
       </c>
       <c r="C38" s="2">
         <f>($A$4+$B$4*B38)-D37</f>
-        <v>41.666085918630642</v>
+        <v>41.666903287747928</v>
       </c>
       <c r="D38" s="2">
         <f>D37+C38</f>
-        <v>208.33357644604916</v>
+        <v>166.66749052741852</v>
       </c>
       <c r="E38" s="2">
         <f>B38*C38</f>
+        <v>694.44152258387817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>8.3332847107901671</v>
+      </c>
+      <c r="C39" s="2">
+        <f>($A$4+$B$4*B39)-D38</f>
+        <v>41.666085918630642</v>
+      </c>
+      <c r="D39" s="2">
+        <f>D38+C39</f>
+        <v>208.33357644604916</v>
+      </c>
+      <c r="E39" s="2">
+        <f>B39*C39</f>
         <v>347.2153567441942</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="7">
-        <f>SUM(E34:E38)</f>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="7">
+        <f>SUM(E35:E39)</f>
         <v>5208.3333332754246</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A39:D39"/>
+  <mergeCells count="11">
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A10:D10"/>
@@ -12402,7 +12727,9 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12416,7 +12743,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A17" sqref="A17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -12443,7 +12770,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="35" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -12459,19 +12786,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12479,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>200</v>
@@ -12497,7 +12824,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -12515,7 +12842,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>100</v>
@@ -12533,7 +12860,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>50</v>
@@ -12548,7 +12875,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <v>400</v>
@@ -12556,7 +12883,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -12564,7 +12891,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="46" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -12572,7 +12899,7 @@
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="46"/>
@@ -12581,37 +12908,37 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="20" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>1</v>
-      </c>
       <c r="E18" s="20" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -12795,7 +13122,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B23" s="26">
         <f>B11</f>
@@ -12840,7 +13167,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -12935,7 +13262,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -12963,7 +13290,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -12979,19 +13306,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12999,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>200</v>
@@ -13017,7 +13344,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -13035,7 +13362,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>100</v>
@@ -13053,7 +13380,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>50</v>
@@ -13068,7 +13395,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1">
         <v>400</v>
@@ -13076,7 +13403,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -13094,7 +13421,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="47" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -13105,7 +13432,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="47" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
@@ -13116,7 +13443,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="46" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -13124,7 +13451,7 @@
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="46"/>
@@ -13133,37 +13460,37 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="20" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>1</v>
-      </c>
       <c r="E18" s="20" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -13344,7 +13671,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B23" s="26">
         <f>B11</f>
@@ -13389,7 +13716,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
